--- a/Задачи.xlsx
+++ b/Задачи.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$E$3</definedName>
+  </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Разработка приложения</t>
   </si>
@@ -98,7 +101,22 @@
     <t>P2</t>
   </si>
   <si>
-    <t>p2</t>
+    <t>Проверка валидности медкнижки</t>
+  </si>
+  <si>
+    <t>Провести юнит тесты</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Таблица базы ЛМК</t>
+  </si>
+  <si>
+    <t>Отображение данных согласно прав доступа</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,85 +185,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,9 +210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -278,9 +219,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,38 +230,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -660,263 +603,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="9">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="B14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="9">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="9">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="9">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH("PASS",F1)))</formula>
+  <sortState ref="A4:E13">
+    <sortCondition ref="A4:A13"/>
+    <sortCondition ref="D4:D13"/>
+  </sortState>
+  <conditionalFormatting sqref="E1:E11 E13 E16:E1048576">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
